--- a/COVID.xlsx
+++ b/COVID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B323B654-5DFC-46BD-9E2F-260EBFA24D34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004FF61D-9CA2-48D7-BE00-74A7A634E611}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesUSA" sheetId="2" r:id="rId1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>CasesUSA!$B$2:$B$33</c:f>
+              <c:f>CasesUSA!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4.2484952420493594</c:v>
                 </c:pt>
@@ -351,7 +351,10 @@
                   <c:v>10.438049233978703</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.159717656838128</c:v>
+                  <c:v>10.154829758209017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.324136795969332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E5496-E94F-45A8-9ABA-919281039230}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -2440,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>5.4000000000000003E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2455,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>0.39240000000000003</v>
+        <v>0.39739999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2463,14 +2466,14 @@
         <v>104</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B33" si="0">LN(A3)</f>
+        <f t="shared" ref="B3:B34" si="0">LN(A3)</f>
         <v>4.6443908991413725</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>3.4472</v>
+        <v>3.4251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2486,7 +2489,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2/(2*D1)</f>
-        <v>36.333333333333336</v>
+        <v>36.127272727272725</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2502,7 +2505,7 @@
       </c>
       <c r="D5" s="2">
         <f>SQRT(PI()/D1)*EXP(D3+(D2*D2)/(4*D1))</f>
-        <v>944908.24415611988</v>
+        <v>962661.98511347256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2750,11 +2753,20 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>25841</v>
+        <v>25715</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>10.159717656838128</v>
+        <v>10.154829758209017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>30459</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>10.324136795969332</v>
       </c>
     </row>
   </sheetData>
@@ -2768,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5463F13-FC54-415F-88CB-5E6D6BF8A5D8}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>

--- a/COVID.xlsx
+++ b/COVID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004FF61D-9CA2-48D7-BE00-74A7A634E611}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CE67-A090-4C23-BC5D-74EFE95BC1A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesUSA" sheetId="2" r:id="rId1"/>
@@ -29,13 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -108,11 +102,8 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,10 +244,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>CasesUSA!$B$2:$B$34</c:f>
+              <c:f>CasesUSA!$B$1:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.2484952420493594</c:v>
                 </c:pt>
@@ -297,64 +288,70 @@
                   <c:v>7.2820736580934646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8504931808711405</c:v>
+                  <c:v>7.886081401775745</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6011666251924161</c:v>
+                  <c:v>8.5987731784086598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6105013685498886</c:v>
+                  <c:v>8.6179430945163809</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.877242435993919</c:v>
+                  <c:v>8.8769633402622716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0283387639931476</c:v>
+                  <c:v>9.0312137060787467</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.1838937219611996</c:v>
+                  <c:v>9.1932959373669245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2608433541492889</c:v>
+                  <c:v>9.2688922589257974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.5389964273973895</c:v>
+                  <c:v>9.5458121082638119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7264520001714114</c:v>
+                  <c:v>9.7356604418926267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.838735675306431</c:v>
+                  <c:v>9.8412397390566007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.889439336810069</c:v>
+                  <c:v>9.9060841783833933</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.7947881356127873</c:v>
+                  <c:v>9.7997368515421996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.9901697086718517</c:v>
+                  <c:v>9.988839219635631</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.150386692204734</c:v>
+                  <c:v>10.156500537452615</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.182557648139346</c:v>
+                  <c:v>10.187086299550273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.292484467936985</c:v>
+                  <c:v>10.300180968257168</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.388410581979008</c:v>
+                  <c:v>10.391852820371936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.438049233978703</c:v>
+                  <c:v>10.437844138828483</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.154829758209017</c:v>
+                  <c:v>10.157780872842554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.324136795969332</c:v>
+                  <c:v>10.347981047611771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.363440845928363</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.402625136506927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,81 +645,90 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>FatalitiesUSA!$B$7:$B$31</c:f>
+              <c:f>FatalitiesUSA!$B$1:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.4849066497880004</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.2958368660043291</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.1354942159291497</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.4339872044851463</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.0253516907351496</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.2046926193909657</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.290459441148391</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.8040210447332568</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8520302639196169</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>4.8598124043616719</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5.3230099791384085</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5568280616995374</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5645204073226937</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5.5490760848952201</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>6.0014148779611505</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>6.1717005974109149</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.7430031878094825</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1923624894748723</c:v>
+                  <c:v>5.7462031905401529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6240652277998935</c:v>
+                  <c:v>6.1903154058531475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.866933284461882</c:v>
+                  <c:v>6.6267177492490248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1163941440934648</c:v>
+                  <c:v>6.8658910748834385</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1364832085902474</c:v>
+                  <c:v>7.1000271666292596</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1869010204116313</c:v>
+                  <c:v>7.1444071803211386</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0475172213572961</c:v>
+                  <c:v>7.1815919446118652</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.1891677384203225</c:v>
+                  <c:v>7.0570369816978911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1959372264755688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5657932824285146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5438028675015092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,355 +2424,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E5496-E94F-45A8-9ABA-919281039230}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1">
+        <f>LN(A1)</f>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:B35" si="0">LN(A2)</f>
+        <v>4.6443908991413725</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="1">
+        <v>0.40329999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7535901911063645</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2">
-        <f>LN(A2)</f>
-        <v>4.2484952420493594</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="1">
+        <v>3.3986999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7957905455967413</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.39739999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B34" si="0">LN(A3)</f>
-        <v>4.6443908991413725</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="1">
+        <f>D2/(2*D1)</f>
+        <v>35.377192982456137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>176</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1704839950381514</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>3.4251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>116</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7535901911063645</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>D2/(2*D1)</f>
-        <v>36.127272727272725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>121</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7957905455967413</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>SQRT(PI()/D1)*EXP(D3+(D2*D2)/(4*D1))</f>
-        <v>962661.98511347256</v>
+        <v>880742.3936154187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>176</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1704839950381514</v>
+      <c r="A6" s="1">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6698809229805196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>290</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6698809229805196</v>
+      <c r="A7" s="1">
+        <v>245</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5012582105447274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>245</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5012582105447274</v>
+      <c r="A8" s="1">
+        <v>424</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0497334552319577</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>424</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0497334552319577</v>
+      <c r="A9" s="1">
+        <v>532</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2766434893416445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>532</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2766434893416445</v>
+      <c r="A10" s="1">
+        <v>724</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.584791392385716</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>724</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>6.584791392385716</v>
+      <c r="A11" s="1">
+        <v>707</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5610306658965731</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>707</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5610306658965731</v>
+      <c r="A12" s="1">
+        <v>965</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8721281013389861</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>965</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8721281013389861</v>
+      <c r="A13" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2820736580934646</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>1454</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2820736580934646</v>
+      <c r="A14" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.886081401775745</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2567</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8504931808711405</v>
+      <c r="A15" s="1">
+        <v>5425</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5987731784086598</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>5438</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6011666251924161</v>
+      <c r="A16" s="1">
+        <v>5530</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6179430945163809</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>5489</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6105013685498886</v>
+      <c r="A17" s="1">
+        <v>7165</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8769633402622716</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>7167</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.877242435993919</v>
+      <c r="A18" s="1">
+        <v>8360</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0312137060787467</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>8336</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>9.0283387639931476</v>
+      <c r="A19" s="1">
+        <v>9831</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1932959373669245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>9739</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1838937219611996</v>
+      <c r="A20" s="1">
+        <v>10603</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2688922589257974</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>10518</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2608433541492889</v>
+      <c r="A21" s="1">
+        <v>13986</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5458121082638119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>13891</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5389964273973895</v>
+      <c r="A22" s="1">
+        <v>16910</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7356604418926267</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>16755</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7264520001714114</v>
+      <c r="A23" s="1">
+        <v>18793</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8412397390566007</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>18746</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>9.838735675306431</v>
+      <c r="A24" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9060841783833933</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>19721</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>9.889439336810069</v>
+      <c r="A25" s="1">
+        <v>18029</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7997368515421996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>17940</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7947881356127873</v>
+      <c r="A26" s="1">
+        <v>21782</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.988839219635631</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>21811</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9901697086718517</v>
+      <c r="A27" s="1">
+        <v>25758</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>10.156500537452615</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>25601</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>10.150386692204734</v>
+      <c r="A28" s="1">
+        <v>26558</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>10.187086299550273</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>26438</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>10.182557648139346</v>
+      <c r="A29" s="1">
+        <v>29738</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>10.300180968257168</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29510</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>10.292484467936985</v>
+      <c r="A30" s="1">
+        <v>32593</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>10.391852820371936</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>32481</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>10.388410581979008</v>
+      <c r="A31" s="1">
+        <v>34127</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>10.437844138828483</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>34134</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>10.438049233978703</v>
+      <c r="A32" s="1">
+        <v>25791</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>10.157780872842554</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>25715</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>10.154829758209017</v>
+      <c r="A33" s="1">
+        <v>31194</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>10.347981047611771</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>30459</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>10.324136795969332</v>
+      <c r="A34" s="1">
+        <v>31680</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>10.363440845928363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>32946</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>10.402625136506927</v>
       </c>
     </row>
   </sheetData>
@@ -2778,319 +2792,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5463F13-FC54-415F-88CB-5E6D6BF8A5D8}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="13.90625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
+        <f t="shared" ref="B1:B27" si="0">LN(A1)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
-        <f>LN(A1)</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2">
+        <v>0.3473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B30" si="0">LN(A2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1.7155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2">
+        <f>D2/(2*D1)</f>
+        <v>35.438775510204081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>1.9334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0794415416798357</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <f>D2/(2*D1)</f>
-        <v>31.561403508771928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>SQRT(3.14/D1)*EXP(D3 + (D2*D2)/(4*D1))</f>
-        <v>47432.002744973535</v>
+        <v>66225.098681914751</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3025850929940459</v>
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3025850929940459</v>
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0253516907351496</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4849066497880004</v>
+      <c r="A8" s="1">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2046926193909657</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2958368660043291</v>
+      <c r="A9" s="1">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.290459441148391</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1354942159291497</v>
+      <c r="A10" s="1">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8040210447332568</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4339872044851463</v>
+      <c r="A11" s="1">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8598124043616719</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0253516907351496</v>
+      <c r="A12" s="1">
+        <v>205</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3230099791384085</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2046926193909657</v>
+      <c r="A13" s="1">
+        <v>261</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5645204073226937</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.290459441148391</v>
+      <c r="A14" s="1">
+        <v>257</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5490760848952201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>122</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8040210447332568</v>
+      <c r="A15" s="1">
+        <v>404</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0014148779611505</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>128</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8520302639196169</v>
+      <c r="A16" s="1">
+        <v>479</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1717005974109149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>205</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3230099791384085</v>
+      <c r="A17" s="1">
+        <v>313</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7462031905401529</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>259</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5568280616995374</v>
+      <c r="A18" s="1">
+        <v>488</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1903154058531475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>257</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5490760848952201</v>
+      <c r="A19" s="1">
+        <v>755</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6267177492490248</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>404</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0014148779611505</v>
+      <c r="A20" s="1">
+        <v>959</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8658910748834385</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>479</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1717005974109149</v>
+      <c r="A21" s="1">
+        <v>1212</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1000271666292596</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>312</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7430031878094825</v>
+      <c r="A22" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1444071803211386</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>489</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1923624894748723</v>
+      <c r="A23" s="1">
+        <v>1315</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1815919446118652</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>753</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6240652277998935</v>
+      <c r="A24" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0570369816978911</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>960</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>6.866933284461882</v>
+      <c r="A25" s="1">
+        <v>1334</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1959372264755688</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>1232</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1163941440934648</v>
+      <c r="A26" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5657932824285146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>1257</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1364832085902474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>1322</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1869010204116313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1150</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0475172213572961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1325</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1891677384203225</v>
+      <c r="A27" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5438028675015092</v>
       </c>
     </row>
   </sheetData>

--- a/COVID.xlsx
+++ b/COVID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey Sarantsev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CE67-A090-4C23-BC5D-74EFE95BC1A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78568928-F1BF-4C65-B944-C1F97FBF1896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesUSA" sheetId="2" r:id="rId1"/>
@@ -50,11 +50,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -102,12 +103,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,10 +248,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>CasesUSA!$B$1:$B$35</c:f>
+              <c:f>CasesUSA!$B$1:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.2484952420493594</c:v>
                 </c:pt>
@@ -339,19 +343,22 @@
                   <c:v>10.391852820371936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.437844138828483</c:v>
+                  <c:v>10.43781483608721</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.157780872842554</c:v>
+                  <c:v>10.15766454643051</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10.347981047611771</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.363440845928363</c:v>
+                  <c:v>10.36340927977359</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.402625136506927</c:v>
+                  <c:v>10.41664046606121</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.424006048273018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,7 +453,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -645,10 +652,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>FatalitiesUSA!$B$1:$B$27</c:f>
+              <c:f>FatalitiesUSA!$B$1:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2.3025850929940459</c:v>
                 </c:pt>
@@ -722,13 +729,16 @@
                   <c:v>7.0570369816978911</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1959372264755688</c:v>
+                  <c:v>7.1944368511003347</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5657932824285146</c:v>
+                  <c:v>7.5652752818989315</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5438028675015092</c:v>
+                  <c:v>7.5673456760132396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5213179801992398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,23 +2434,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E5496-E94F-45A8-9ABA-919281039230}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>70</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <f>LN(A1)</f>
         <v>4.2484952420493594</v>
       </c>
@@ -2448,29 +2460,29 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>104</v>
       </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:B35" si="0">LN(A2)</f>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B36" si="0">LN(A2)</f>
         <v>4.6443908991413725</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.40329999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>116</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f t="shared" si="0"/>
         <v>4.7535901911063645</v>
       </c>
@@ -2478,14 +2490,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3.3986999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.3950999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>121</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>4.7957905455967413</v>
       </c>
@@ -2494,14 +2506,14 @@
       </c>
       <c r="D4" s="1">
         <f>D2/(2*D1)</f>
-        <v>35.377192982456137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34.827586206896555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>176</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>5.1704839950381514</v>
       </c>
@@ -2510,277 +2522,286 @@
       </c>
       <c r="D5" s="1">
         <f>SQRT(PI()/D1)*EXP(D3+(D2*D2)/(4*D1))</f>
-        <v>880742.3936154187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>788262.18645920674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>290</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>5.6698809229805196</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>245</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5.5012582105447274</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>424</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6.0497334552319577</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>532</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6.2766434893416445</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>724</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>6.584791392385716</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>707</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>6.5610306658965731</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>965</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6.8721281013389861</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1454</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7.2820736580934646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2660</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>7.886081401775745</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5425</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>8.5987731784086598</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5530</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>8.6179430945163809</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7165</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8.8769633402622716</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8360</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9.0312137060787467</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9831</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>9.1932959373669245</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10603</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>9.2688922589257974</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>13986</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>9.5458121082638119</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16910</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>9.7356604418926267</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18793</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>9.8412397390566007</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20052</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>9.9060841783833933</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18029</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>9.7997368515421996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21782</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>9.988839219635631</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25758</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>10.156500537452615</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26558</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>10.187086299550273</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29738</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>10.300180968257168</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>32593</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>10.391852820371936</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>34127</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>10.437844138828483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34126</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>10.43781483608721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>25791</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>10.157780872842554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25788</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>10.15766454643051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31194</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>10.347981047611771</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>31680</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>10.363440845928363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31679</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>10.36340927977359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>32946</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>10.402625136506927</v>
+        <v>33411</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>10.41664046606121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33658</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>10.424006048273018</v>
       </c>
     </row>
   </sheetData>
@@ -2792,35 +2813,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5463F13-FC54-415F-88CB-5E6D6BF8A5D8}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="13.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10</v>
       </c>
       <c r="B1" s="1">
-        <f t="shared" ref="B1:B27" si="0">LN(A1)</f>
+        <f t="shared" ref="B1:B28" si="0">LN(A1)</f>
         <v>2.3025850929940459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -2832,10 +2853,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2847,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1.7155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>27</v>
       </c>
@@ -2863,10 +2884,10 @@
       </c>
       <c r="D4" s="2">
         <f>D2/(2*D1)</f>
-        <v>35.438775510204081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>23</v>
       </c>
@@ -2879,10 +2900,10 @@
       </c>
       <c r="D5" s="2">
         <f>SQRT(3.14/D1)*EXP(D3 + (D2*D2)/(4*D1))</f>
-        <v>66225.098681914751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63023.949456247748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>3.4339872044851463</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>56</v>
       </c>
@@ -2900,7 +2921,7 @@
         <v>4.0253516907351496</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>67</v>
       </c>
@@ -2909,7 +2930,7 @@
         <v>4.2046926193909657</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -2918,7 +2939,7 @@
         <v>4.290459441148391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>122</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>4.8040210447332568</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>129</v>
       </c>
@@ -2936,7 +2957,7 @@
         <v>4.8598124043616719</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>205</v>
       </c>
@@ -2945,7 +2966,7 @@
         <v>5.3230099791384085</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>261</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>5.5645204073226937</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>257</v>
       </c>
@@ -2963,7 +2984,7 @@
         <v>5.5490760848952201</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>404</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>6.0014148779611505</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>479</v>
       </c>
@@ -2981,7 +3002,7 @@
         <v>6.1717005974109149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>313</v>
       </c>
@@ -2990,7 +3011,7 @@
         <v>5.7462031905401529</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>488</v>
       </c>
@@ -2999,7 +3020,7 @@
         <v>6.1903154058531475</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>755</v>
       </c>
@@ -3008,7 +3029,7 @@
         <v>6.6267177492490248</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>959</v>
       </c>
@@ -3017,7 +3038,7 @@
         <v>6.8658910748834385</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1212</v>
       </c>
@@ -3026,7 +3047,7 @@
         <v>7.1000271666292596</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1267</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>7.1444071803211386</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1315</v>
       </c>
@@ -3044,7 +3065,7 @@
         <v>7.1815919446118652</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1161</v>
       </c>
@@ -3053,31 +3074,40 @@
         <v>7.0570369816978911</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>7.1959372264755688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7.1944368511003347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>7.5657932824285146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7.5652752818989315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1889</v>
+        <v>1934</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>7.5438028675015092</v>
+        <v>7.5673456760132396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1847</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5213179801992398</v>
       </c>
     </row>
   </sheetData>
